--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -34,9 +34,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,13 +62,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -77,32 +85,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,14 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -155,37 +132,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,85 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,97 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,21 +405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,9 +450,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,164 +491,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,13 +964,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -980,12 +980,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="14:14">
+      <c r="N8" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>name</t>
+    <t xml:space="preserve">Name           </t>
   </si>
   <si>
-    <t>job</t>
+    <t>Job</t>
   </si>
   <si>
-    <t>shivaji</t>
+    <t xml:space="preserve">shivaji  </t>
   </si>
   <si>
-    <t>engineer</t>
+    <t xml:space="preserve"> Engineer </t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developer</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Fashion Designer</t>
   </si>
 </sst>
 </file>
@@ -33,9 +45,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -54,8 +66,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,53 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -132,9 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,43 +176,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,73 +218,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,103 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +421,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -424,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -444,17 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,145 +511,145 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,13 +976,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="26.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -980,23 +996,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="14:14">
-      <c r="N8" t="s">
-        <v>2</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -7,37 +7,25 @@
     <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Name           </t>
+    <t>Name</t>
   </si>
   <si>
     <t>Job</t>
   </si>
   <si>
-    <t xml:space="preserve">shivaji  </t>
+    <t>Shivaji</t>
   </si>
   <si>
-    <t xml:space="preserve"> Engineer </t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Developer</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Fashion Designer</t>
+    <t>Engineer</t>
   </si>
 </sst>
 </file>
@@ -45,9 +33,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,15 +48,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,7 +117,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,37 +140,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -159,38 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,13 +200,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,19 +248,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,139 +338,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,50 +411,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +444,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -508,148 +496,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,17 +964,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="26.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1004,22 +988,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
